--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/metrics/Trial_221__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/metrics/Trial_221__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5902,7 +5902,7 @@
                   <c:v>326.3617553710938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>343.8718566894531</c:v>
+                  <c:v>343.871826171875</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>358.9479675292969</c:v>
@@ -5929,7 +5929,7 @@
                   <c:v>356.8217468261719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>337.3539733886719</c:v>
+                  <c:v>337.3539428710938</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>358.2467651367188</c:v>
@@ -6016,7 +6016,7 @@
                   <c:v>336.4211730957031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>356.5498962402344</c:v>
+                  <c:v>356.5498657226562</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>358.1066589355469</c:v>
@@ -6055,7 +6055,7 @@
                   <c:v>357.7823486328125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>343.0446472167969</c:v>
+                  <c:v>343.044677734375</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>337.2913208007812</c:v>
@@ -6076,7 +6076,7 @@
                   <c:v>360.6641235351562</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>346.8143310546875</c:v>
+                  <c:v>346.8143615722656</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>357.5353088378906</c:v>
@@ -6097,7 +6097,7 @@
                   <c:v>359.2622985839844</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>355.7866516113281</c:v>
+                  <c:v>355.78662109375</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>357.492919921875</c:v>
@@ -6121,7 +6121,7 @@
                   <c:v>331.4768676757812</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>358.2654418945312</c:v>
+                  <c:v>358.2654724121094</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>358.8684997558594</c:v>
@@ -6130,7 +6130,7 @@
                   <c:v>341.5149841308594</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>357.599365234375</c:v>
+                  <c:v>357.5993347167969</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>347.5148620605469</c:v>
@@ -6154,7 +6154,7 @@
                   <c:v>336.73046875</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>345.9276123046875</c:v>
+                  <c:v>345.9276428222656</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>354.7086791992188</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>357.6818237304688</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>353.8419189453125</c:v>
+                  <c:v>353.8419494628906</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>357.6823425292969</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6908,13 +6920,19 @@
         <v>347.9133911132812</v>
       </c>
       <c r="G3">
+        <v>381</v>
+      </c>
+      <c r="H3">
+        <v>381</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>326.3617553710938</v>
       </c>
       <c r="G4">
+        <v>381</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6957,16 +6981,22 @@
         <v>336.029</v>
       </c>
       <c r="F5">
-        <v>343.8718566894531</v>
+        <v>343.871826171875</v>
       </c>
       <c r="G5">
+        <v>381</v>
+      </c>
+      <c r="H5">
+        <v>381</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>358.9479675292969</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>381</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7012,13 +7048,19 @@
         <v>336.6840515136719</v>
       </c>
       <c r="G7">
+        <v>381</v>
+      </c>
+      <c r="H7">
+        <v>381</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>358.7358093261719</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>354.8585205078125</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>358.6480712890625</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>356.5670471191406</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>359.1353454589844</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>356.8217468261719</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7155,10 +7197,10 @@
         <v>337.425</v>
       </c>
       <c r="F14">
-        <v>337.3539733886719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>337.3539428710938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>358.2467651367188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7735,7 +7777,7 @@
         <v>357.955</v>
       </c>
       <c r="F43">
-        <v>356.5498962402344</v>
+        <v>356.5498657226562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7995,7 +8037,7 @@
         <v>340.859</v>
       </c>
       <c r="F56">
-        <v>343.0446472167969</v>
+        <v>343.044677734375</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8135,7 +8177,7 @@
         <v>361.676</v>
       </c>
       <c r="F63">
-        <v>346.8143310546875</v>
+        <v>346.8143615722656</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8275,7 +8317,7 @@
         <v>356.754</v>
       </c>
       <c r="F70">
-        <v>355.7866516113281</v>
+        <v>355.78662109375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8435,7 +8477,7 @@
         <v>337.008</v>
       </c>
       <c r="F78">
-        <v>358.2654418945312</v>
+        <v>358.2654724121094</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8495,7 +8537,7 @@
         <v>357.47</v>
       </c>
       <c r="F81">
-        <v>357.599365234375</v>
+        <v>357.5993347167969</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8655,7 +8697,7 @@
         <v>339.933</v>
       </c>
       <c r="F89">
-        <v>345.9276123046875</v>
+        <v>345.9276428222656</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8835,7 +8877,7 @@
         <v>360.004</v>
       </c>
       <c r="F98">
-        <v>353.8419189453125</v>
+        <v>353.8419494628906</v>
       </c>
     </row>
     <row r="99" spans="1:6">
